--- a/output/senior/11_count.xlsx
+++ b/output/senior/11_count.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>ans_str</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>count</t>
   </si>
   <si>
     <t>[[]]</t>
@@ -407,105 +410,138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
         <v>1</v>
       </c>
     </row>

--- a/output/senior/11_count.xlsx
+++ b/output/senior/11_count.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>list</t>
   </si>
@@ -22,37 +22,43 @@
     <t>count</t>
   </si>
   <si>
-    <t>[[]]</t>
-  </si>
-  <si>
-    <t>[[{'row': 0, 'col': 0}, {'row': 0, 'col': 1}, {'row': 0, 'col': 2}, {'row': 0, 'col': 3}, {'row': 0, 'col': 4}]]</t>
-  </si>
-  <si>
-    <t>[[{'row': 0, 'col': 0}, {'row': 0, 'col': 1}, {'row': 0, 'col': 3}, {'row': 0, 'col': 2}, {'row': 1, 'col': 1}]]</t>
-  </si>
-  <si>
-    <t>[[{'row': 0, 'col': 0}, {'row': 1, 'col': 0}, {'row': 2, 'col': 0}, {'row': 0, 'col': 1}, {'row': 1, 'col': 1}]]</t>
-  </si>
-  <si>
-    <t>[[{'row': 0, 'col': 0}, {'row': 1, 'col': 2}, {'row': 0, 'col': 2}, None, {'row': 2, 'col': 0}]]</t>
-  </si>
-  <si>
-    <t>[[{'row': 0, 'col': 0}, {'row': 1, 'col': 2}, {'row': 2, 'col': 1}, {'row': 0, 'col': 2}, {'row': 2, 'col': 4}]]</t>
-  </si>
-  <si>
-    <t>[[{'row': 0, 'col': 0}, {'row': 1, 'col': 2}, {'row': 2, 'col': 2}, {'row': 0, 'col': 1}, {'row': 1, 'col': 1}]]</t>
-  </si>
-  <si>
-    <t>[[{'row': 0, 'col': 0}, {'row': 1, 'col': 3}, {'row': 1, 'col': 3}, {'row': 2, 'col': 1}, {'row': 2, 'col': 0}]]</t>
-  </si>
-  <si>
-    <t>[[{'row': 0, 'col': 0}, {'row': 1, 'col': 3}, {'row': 2, 'col': 2}, {'row': 1, 'col': 3}, {'row': 0, 'col': 4}]]</t>
-  </si>
-  <si>
-    <t>[[{'row': 0, 'col': 0}, {'row': 2, 'col': 1}, {'row': 1, 'col': 2}, {'row': 2, 'col': 0}, {'row': 0, 'col': 2}]]</t>
-  </si>
-  <si>
-    <t>[[{'row': 0, 'col': 0}, {'row': 2, 'col': 1}, {'row': 2, 'col': 2}, {'row': 2, 'col': 3}, {'row': 2, 'col': 0}]]</t>
+    <t>success</t>
+  </si>
+  <si>
+    <t>0001020304</t>
+  </si>
+  <si>
+    <t>0001030211</t>
+  </si>
+  <si>
+    <t>0010200111</t>
+  </si>
+  <si>
+    <t>00120220</t>
+  </si>
+  <si>
+    <t>0012210224</t>
+  </si>
+  <si>
+    <t>0012220111</t>
+  </si>
+  <si>
+    <t>0013132120</t>
+  </si>
+  <si>
+    <t>0013221304</t>
+  </si>
+  <si>
+    <t>0021122002</t>
+  </si>
+  <si>
+    <t>0021222320</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -410,32 +416,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -445,8 +454,11 @@
       <c r="C3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -456,8 +468,11 @@
       <c r="C4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -467,8 +482,11 @@
       <c r="C5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -478,8 +496,11 @@
       <c r="C6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -489,8 +510,11 @@
       <c r="C7">
         <v>384</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -500,8 +524,11 @@
       <c r="C8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -511,8 +538,11 @@
       <c r="C9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -522,8 +552,11 @@
       <c r="C10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -533,8 +566,11 @@
       <c r="C11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -543,6 +579,9 @@
       </c>
       <c r="C12">
         <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
